--- a/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lavori\DelphiXE12.2\Ambulatori\RiabilitioDiagno\Doc-Siss30\documentazione\DCE\Accreditamento Sogei\Validazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lavori\DelphiXE12.2\Ambulatori\RiabilitioDiagno\Doc-Siss30\documentazione\DCE\Accreditamento Sogei\Validazione\Validazione2026-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D034F4C-32A5-40B7-A89E-16B0A27187D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF3040-9105-4A6A-B6DE-44FE26174CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="6630" windowWidth="28035" windowHeight="21810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="4215" windowWidth="46275" windowHeight="25020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="199">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>2026-02-08T21:36:14:00Z</t>
+  </si>
+  <si>
+    <t>Errore di timeout. Servizio di verifica documento non disponibile</t>
+  </si>
+  <si>
+    <t>A fine sessione di lavoro, o in qualunque momento scelga il medico, c'è la possibilità di intercettare tutti i referti non validati e ritentare la procedura</t>
   </si>
 </sst>
 </file>
@@ -1451,6 +1457,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1472,9 +1481,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1778,7 +1784,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,10 +2932,10 @@
   <dimension ref="A1:W612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2975,14 +2981,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3003,14 +3009,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3031,12 +3037,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3058,12 +3064,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3084,8 +3090,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3421,13 +3427,27 @@
       <c r="L14" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="M14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>198</v>
+      </c>
       <c r="T14" s="43"/>
       <c r="U14" s="44" t="s">
         <v>51</v>
@@ -3466,13 +3486,27 @@
       <c r="L15" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
+      <c r="M15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>198</v>
+      </c>
       <c r="T15" s="43"/>
       <c r="U15" s="44" t="s">
         <v>51</v>
@@ -3508,7 +3542,7 @@
       <c r="K16" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="46" t="s">
         <v>191</v>
       </c>
       <c r="M16" s="43"/>
@@ -11387,6 +11421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -11530,15 +11573,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11546,6 +11580,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11559,14 +11601,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lavori\DelphiXE12.2\Ambulatori\RiabilitioDiagno\Doc-Siss30\documentazione\DCE\Accreditamento Sogei\Validazione\Validazione2026-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF3040-9105-4A6A-B6DE-44FE26174CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B18481-CAB0-4687-A99D-087FE8AA6CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4215" windowWidth="46275" windowHeight="25020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11355" yWindow="3975" windowWidth="43200" windowHeight="20415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$55</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -839,15 +840,6 @@
     <t>subject_application_version: 4.0</t>
   </si>
   <si>
-    <t>2026-02-08T09:09:48:00Z</t>
-  </si>
-  <si>
-    <t>b555eac8e4d91087ebd9a43cdd260d30</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.46f640c1d0db06d46c8cbcd9355ad940f4a870a8c80c15fc7a2932f40c674cd8.b3fd65fcff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se manca agente, il tag participant/participantRole/playingEntity/code  viene specificato come nullFlavor ="UNK" </t>
   </si>
   <si>
@@ -860,19 +852,28 @@
     <t>Campo valorizzato automaticamente dall'applicativo in base al valore dell'oscuramento del documento per leggi speciali e alla volontà del cittadino</t>
   </si>
   <si>
-    <t>0f209db385543ca80ff022b9060f8181</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.e82dd914b5c57dbf8fa9fc670a0795c44d779f423d26545c3171f70a6c571c84.afc7274c88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-02-08T21:36:14:00Z</t>
-  </si>
-  <si>
     <t>Errore di timeout. Servizio di verifica documento non disponibile</t>
   </si>
   <si>
     <t>A fine sessione di lavoro, o in qualunque momento scelga il medico, c'è la possibilità di intercettare tutti i referti non validati e ritentare la procedura</t>
+  </si>
+  <si>
+    <t>2026-02-12T08:44:30:00Z</t>
+  </si>
+  <si>
+    <t>aa9d1c74bc4c5f4432800ee8155b2cb9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.03aebf1602a69a9d7ee79b60f476c462734fbdf93603272304c8a2de203292be.3618f2fcf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-08T09:10:11:00Z</t>
+  </si>
+  <si>
+    <t>68248749fa1a70a952549913a192b737</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.005913dba8fa2b6ba8a375123092f1b8984ac173210632d009cbdae99c7aeecc.14e2092e34^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2932,10 +2933,10 @@
   <dimension ref="A1:W612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="K10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3253,7 +3254,7 @@
         <v>109</v>
       </c>
       <c r="L10" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -3296,7 +3297,7 @@
         <v>109</v>
       </c>
       <c r="L11" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -3339,7 +3340,7 @@
         <v>109</v>
       </c>
       <c r="L12" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
@@ -3382,7 +3383,7 @@
         <v>109</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -3425,7 +3426,7 @@
         <v>109</v>
       </c>
       <c r="L14" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>51</v>
@@ -3434,7 +3435,7 @@
         <v>51</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P14" s="43" t="s">
         <v>51</v>
@@ -3446,7 +3447,7 @@
         <v>51</v>
       </c>
       <c r="S14" s="43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="T14" s="43"/>
       <c r="U14" s="44" t="s">
@@ -3484,7 +3485,7 @@
         <v>109</v>
       </c>
       <c r="L15" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M15" s="43" t="s">
         <v>51</v>
@@ -3493,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="O15" s="43" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P15" s="43" t="s">
         <v>51</v>
@@ -3505,7 +3506,7 @@
         <v>51</v>
       </c>
       <c r="S15" s="43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="T15" s="43"/>
       <c r="U15" s="44" t="s">
@@ -3543,7 +3544,7 @@
         <v>109</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -4078,7 +4079,7 @@
         <v>109</v>
       </c>
       <c r="L29" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -4203,7 +4204,7 @@
         <v>109</v>
       </c>
       <c r="L32" s="43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -4697,7 +4698,7 @@
         <v>109</v>
       </c>
       <c r="L44" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
@@ -4812,16 +4813,16 @@
         <v>148</v>
       </c>
       <c r="F47" s="41">
-        <v>46061</v>
+        <v>46065</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>196</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J47" s="43" t="s">
         <v>51</v>
@@ -4951,7 +4952,7 @@
         <v>109</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
@@ -4994,7 +4995,7 @@
         <v>109</v>
       </c>
       <c r="L51" s="39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M51" s="43"/>
       <c r="N51" s="43"/>
@@ -5027,16 +5028,16 @@
         <v>165</v>
       </c>
       <c r="F52" s="41">
-        <v>46061</v>
+        <v>46065</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J52" s="43" t="s">
         <v>51</v>
@@ -11421,12 +11422,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11574,15 +11572,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11606,18 +11616,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lavori\DelphiXE12.2\Ambulatori\RiabilitioDiagno\Doc-Siss30\documentazione\DCE\Accreditamento Sogei\Validazione\Validazione2026-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B18481-CAB0-4687-A99D-087FE8AA6CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC3CA6-0AD2-4F92-8F3F-D0EA39F47E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="3975" windowWidth="43200" windowHeight="20415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11775" yWindow="9090" windowWidth="43200" windowHeight="11445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$55</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -858,22 +857,22 @@
     <t>A fine sessione di lavoro, o in qualunque momento scelga il medico, c'è la possibilità di intercettare tutti i referti non validati e ritentare la procedura</t>
   </si>
   <si>
-    <t>2026-02-12T08:44:30:00Z</t>
-  </si>
-  <si>
-    <t>aa9d1c74bc4c5f4432800ee8155b2cb9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.03aebf1602a69a9d7ee79b60f476c462734fbdf93603272304c8a2de203292be.3618f2fcf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2026-02-08T09:10:11:00Z</t>
-  </si>
-  <si>
-    <t>68248749fa1a70a952549913a192b737</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.005913dba8fa2b6ba8a375123092f1b8984ac173210632d009cbdae99c7aeecc.14e2092e34^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-02-13T15:48:34:00Z</t>
+  </si>
+  <si>
+    <t>ce2b5aecf259cc2123e24855156c229b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.3e14dae86cde06d07002f7dbafe29b67c39ba0661c86ed0689edd21051beb1e3.38c7e4d631^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-13T16:16:29:00Z</t>
+  </si>
+  <si>
+    <t>e9ac90590e940edf99bb77e6c64bb20d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.e2575e4ac04c614a4c80a274ff0de9e1678f71aace07446ebf4daac7cb5898c6.43efc6fd42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2933,10 +2932,10 @@
   <dimension ref="A1:W612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2948,7 +2947,7 @@
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="6" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="42.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="154" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="56" customWidth="1"/>
     <col min="12" max="12" width="149.85546875" customWidth="1"/>
@@ -4813,7 +4812,7 @@
         <v>148</v>
       </c>
       <c r="F47" s="41">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>196</v>
@@ -5028,7 +5027,7 @@
         <v>165</v>
       </c>
       <c r="F52" s="41">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="G52" s="41" t="s">
         <v>193</v>

--- a/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lavori\DelphiXE12.2\Ambulatori\RiabilitioDiagno\Doc-Siss30\documentazione\DCE\Accreditamento Sogei\Validazione\Validazione2026-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CC3CA6-0AD2-4F92-8F3F-D0EA39F47E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967F25D-7062-45BF-A5A7-BB799E7D5A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="9090" windowWidth="43200" windowHeight="11445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="17325" windowWidth="43200" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -857,15 +857,6 @@
     <t>A fine sessione di lavoro, o in qualunque momento scelga il medico, c'è la possibilità di intercettare tutti i referti non validati e ritentare la procedura</t>
   </si>
   <si>
-    <t>2026-02-13T15:48:34:00Z</t>
-  </si>
-  <si>
-    <t>ce2b5aecf259cc2123e24855156c229b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.3e14dae86cde06d07002f7dbafe29b67c39ba0661c86ed0689edd21051beb1e3.38c7e4d631^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2026-02-13T16:16:29:00Z</t>
   </si>
   <si>
@@ -873,6 +864,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.e2575e4ac04c614a4c80a274ff0de9e1678f71aace07446ebf4daac7cb5898c6.43efc6fd42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-02-17T09:00:27:00Z</t>
+  </si>
+  <si>
+    <t>24d3e656c2e9ecb7310c243ce1c9ea21</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.638e3f01c769d20bd53f672f8b0686951fc3ca4be267b5912f6519a93a3081f4.aefe3b34ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +2935,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4815,13 +4815,13 @@
         <v>46066</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I47" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J47" s="43" t="s">
         <v>51</v>
@@ -5027,16 +5027,16 @@
         <v>165</v>
       </c>
       <c r="F52" s="41">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J52" s="43" t="s">
         <v>51</v>
@@ -11421,12 +11421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -11570,6 +11564,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11580,23 +11580,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11614,6 +11597,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SDSINFORMATICAXX/SDSINFORMATICA/RIABILITIODIAGNO/4.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Lavori\DelphiXE12.2\Ambulatori\RiabilitioDiagno\Doc-Siss30\documentazione\DCE\Accreditamento Sogei\Validazione\Validazione2026-02-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967F25D-7062-45BF-A5A7-BB799E7D5A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAFCCE8-CB95-4D77-9412-34E59FB482E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="17325" windowWidth="43200" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="5010" windowWidth="32055" windowHeight="21360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="199">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -845,9 +845,6 @@
     <t>Il valore del campo CF viene sempre salvato in maiuscolo nel database dall'applicativo</t>
   </si>
   <si>
-    <t>Per regione Lombardia l'operazione di validazione, che in una prima fase di test veniva richiesta al produttore del DCE tramite una chiamata diretta al Gateway, ora viene gestita dalla Middleware regionale</t>
-  </si>
-  <si>
     <t>Campo valorizzato automaticamente dall'applicativo in base al valore dell'oscuramento del documento per leggi speciali e alla volontà del cittadino</t>
   </si>
   <si>
@@ -873,6 +870,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.638e3f01c769d20bd53f672f8b0686951fc3ca4be267b5912f6519a93a3081f4.aefe3b34ee^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Campi fissi settati e testati in fase di configurazione e test. Campi variabili dipendenti da medico e cittadino validati prima della fase di creazione definitiva referto.</t>
   </si>
 </sst>
 </file>
@@ -2932,10 +2932,10 @@
   <dimension ref="A1:W612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3250,11 +3250,9 @@
         <v>100</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>189</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L10" s="43"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
@@ -3293,11 +3291,9 @@
         <v>100</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>189</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L11" s="43"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -3339,7 +3335,7 @@
         <v>109</v>
       </c>
       <c r="L12" s="43" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
@@ -3382,7 +3378,7 @@
         <v>109</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -3419,14 +3415,12 @@
       <c r="H14" s="41"/>
       <c r="I14" s="42"/>
       <c r="J14" s="43" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="43" t="s">
-        <v>189</v>
-      </c>
+      <c r="L14" s="43"/>
       <c r="M14" s="43" t="s">
         <v>51</v>
       </c>
@@ -3434,7 +3428,7 @@
         <v>51</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P14" s="43" t="s">
         <v>51</v>
@@ -3446,7 +3440,7 @@
         <v>51</v>
       </c>
       <c r="S14" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T14" s="43"/>
       <c r="U14" s="44" t="s">
@@ -3478,14 +3472,12 @@
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
       <c r="J15" s="43" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="43" t="s">
-        <v>189</v>
-      </c>
+      <c r="L15" s="43"/>
       <c r="M15" s="43" t="s">
         <v>51</v>
       </c>
@@ -3493,7 +3485,7 @@
         <v>51</v>
       </c>
       <c r="O15" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P15" s="43" t="s">
         <v>51</v>
@@ -3505,7 +3497,7 @@
         <v>51</v>
       </c>
       <c r="S15" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T15" s="43"/>
       <c r="U15" s="44" t="s">
@@ -4815,13 +4807,13 @@
         <v>46066</v>
       </c>
       <c r="G47" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="I47" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>195</v>
       </c>
       <c r="J47" s="43" t="s">
         <v>51</v>
@@ -4951,7 +4943,7 @@
         <v>109</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
@@ -4994,7 +4986,7 @@
         <v>109</v>
       </c>
       <c r="L51" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M51" s="43"/>
       <c r="N51" s="43"/>
@@ -5030,13 +5022,13 @@
         <v>46070</v>
       </c>
       <c r="G52" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="I52" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="J52" s="43" t="s">
         <v>51</v>
@@ -11421,6 +11413,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BE9A258ADBC3EC4CBEB1E2AB9909207A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0284f501378927579289f00316ec8a74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="295b7897-c886-40bf-9750-5782b814c3e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b47213d65be806e283915cff374a7eef" ns2:_="">
     <xsd:import namespace="295b7897-c886-40bf-9750-5782b814c3e4"/>
@@ -11564,35 +11571,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11615,9 +11597,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7568E770-0BC4-46AF-B6C6-958AE21C8F7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
